--- a/EditProject/Design/Stage/G_Batman.xlsx
+++ b/EditProject/Design/Stage/G_Batman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="11040" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="20940" yWindow="12740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>addKeyToLuaTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,7 +452,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -509,33 +497,33 @@
     <row r="4" spans="1:3" hidden="1"/>
     <row r="5" spans="1:3" hidden="1"/>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1">
+        <v>4001001</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1">
+        <v>4001002</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>4001003</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
